--- a/LatestFramework/src/test/resources/TestData/TestData.xlsx
+++ b/LatestFramework/src/test/resources/TestData/TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A29BA871-BA4A-4DF0-81D5-899DCEB54392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="15045" windowHeight="5940" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -12,8 +13,8 @@
     <sheet name="Email" sheetId="3" r:id="rId3"/>
     <sheet name="SearchProfile" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <oleSize ref="A1:O4"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q13"/>
 </workbook>
 </file>
 
@@ -391,15 +392,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,144 +423,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,204 +439,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -849,263 +521,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1115,77 +561,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1470,278 +858,276 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="D10" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.1428571428571" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7142857142857" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="26.2857142857143" style="7" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="44.4285714285714" style="7" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.5714285714286" style="7" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.7142857142857" style="7" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.1428571428571" style="7" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7142857142857" style="7" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.4285714285714" style="7" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.7142857142857" style="7" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5714285714286" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.8571428571429" style="7" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9" style="7" collapsed="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="7"/>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="60" spans="1:7">
-      <c r="A3" s="14">
+    <row r="3" spans="1:10" ht="57.6">
+      <c r="A3" s="10">
         <v>44991</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="60" spans="1:7">
-      <c r="A4" s="14">
+    <row r="4" spans="1:10" ht="57.6">
+      <c r="A4" s="10">
         <v>44992</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="150" spans="1:7">
-      <c r="A5" s="14">
+    <row r="5" spans="1:10" ht="144">
+      <c r="A5" s="10">
         <v>44993</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="225" spans="1:7">
-      <c r="A6" s="14">
+    <row r="6" spans="1:10" ht="201.6">
+      <c r="A6" s="10">
         <v>44994</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="105" spans="1:7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="1:10" ht="72">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" ht="165" spans="1:7">
-      <c r="A8" s="17"/>
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:10" ht="144">
+      <c r="A8" s="2"/>
+      <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="13.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1762,27 +1148,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="rakhi.r@techversantinfotech.com" tooltip="mailto:rakhi.r@techversantinfotech.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Ayaan@123" tooltip="mailto:Ayaan@123"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:rakhi.r@techversantinfotech.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="mailto:Ayaan@123" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1797,24 +1181,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="ghfsdtyfg@gmail.com" tooltip="mailto:ghfsdtyfg@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:ghfsdtyfg@gmail.com" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -1828,6 +1210,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>